--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2020.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2020.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.029*"exchange" + 0.021*"foreign" + 0.013*"fund" + 0.010*"currency" + 0.010*"bank" + 0.010*"yes" + 0.010*"nonresident" + 0.010*"may" + 0.010*"transaction" + 0.010*"abroad"</t>
-  </si>
-  <si>
-    <t>0.003*"exchange" + 0.002*"yes" + 0.002*"foreign" + 0.002*"abroad" + 0.001*"currency" + 0.001*"fund" + 0.001*"nonresident" + 0.001*"investment" + 0.001*"resident" + 0.001*"international"</t>
-  </si>
-  <si>
-    <t>0.003*"exchange" + 0.002*"foreign" + 0.002*"yes" + 0.002*"fund" + 0.001*"international" + 0.001*"investment" + 0.001*"abroad" + 0.001*"bank" + 0.001*"nonresident" + 0.001*"currency"</t>
-  </si>
-  <si>
-    <t>0.027*"exchange" + 0.022*"foreign" + 0.017*"yes" + 0.012*"fund" + 0.012*"bank" + 0.012*"currency" + 0.011*"resident" + 0.010*"monetary" + 0.010*"transaction" + 0.010*"account"</t>
-  </si>
-  <si>
-    <t>0.026*"exchange" + 0.023*"yes" + 0.023*"foreign" + 0.016*"fund" + 0.013*"bank" + 0.012*"may" + 0.011*"investment" + 0.011*"currency" + 0.011*"international" + 0.010*"resident"</t>
+    <t>0.051*"investment" + 0.047*"security" + 0.041*"nonresident" + 0.039*"resident" + 0.037*"issue" + 0.031*"abroad" + 0.031*"instrument" + 0.028*"purchase" + 0.026*"legal" + 0.025*"sale"</t>
+  </si>
+  <si>
+    <t>0.124*"yes" + 0.043*"requirement" + 0.038*"import" + 0.034*"payment" + 0.030*"export" + 0.025*"approval" + 0.022*"license" + 0.022*"transaction" + 0.019*"control" + 0.016*"require"</t>
+  </si>
+  <si>
+    <t>0.018*"imf" + 0.016*"law" + 0.015*"regulation" + 0.014*"article" + 0.013*"country" + 0.013*"aspx" + 0.013*"orgpagesreports" + 0.012*"republic" + 0.010*"certain" + 0.010*"accordance"</t>
+  </si>
+  <si>
+    <t>0.059*"foreign" + 0.030*"currency" + 0.029*"may" + 0.029*"account" + 0.028*"bank" + 0.019*"exchange" + 0.015*"resident" + 0.014*"must" + 0.014*"asset" + 0.012*"company"</t>
+  </si>
+  <si>
+    <t>0.103*"exchange" + 0.056*"monetary" + 0.055*"fund" + 0.052*"international" + 0.037*"rate" + 0.035*"restriction" + 0.034*"arrangement" + 0.030*"report" + 0.024*"annual" + 0.022*"market"</t>
   </si>
 </sst>
 </file>
